--- a/data/output/FV2304_FV2210/MSCONS/13022.xlsx
+++ b/data/output/FV2304_FV2210/MSCONS/13022.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="220">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="220">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -768,6 +768,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U108" totalsRowShown="0">
+  <autoFilter ref="A1:U108"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1057,7 +1087,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5928,5 +5961,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/MSCONS/13022.xlsx
+++ b/data/output/FV2304_FV2210/MSCONS/13022.xlsx
@@ -1515,7 +1515,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -2833,7 +2833,7 @@
         <v>210</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N61" s="2"/>
@@ -4415,7 +4415,7 @@
         <v>213</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N103" s="2"/>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N106" s="2"/>
